--- a/biology/Zoologie/Copelatus_convexus/Copelatus_convexus.xlsx
+++ b/biology/Zoologie/Copelatus_convexus/Copelatus_convexus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Escheria convexa, Hydrobius convexa
 Copelatus convexus est une espèce fossile d'insectes coléoptères aquatiques de la sous-famille des Copelatinae (famille des Dytiscidae).
@@ -512,16 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Copelatus convexus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852-1924) sous le protonyme Escheria convexa[1],[2].
-Renommage
-En 1937 le paléontologue français Nicolas Théobald (1903-1981) renomme Escheria convexa en Hydrobius convexus ou Hydrobius convexa selon TPDB[3],[2].
-En 2011 le paléontologue tchèque Martin Fikáček (d) et son équipe renomment Escheria convexa en Copelatus convexus[4],[2]. Ils indiquent que l'holotype de Brunstatt est perdu, et proposent que les spécimens de Kleinkembs deviennent le néotype[note 1].
-Fossiles
-Selon Paleobiology Database en 2023, un seul fossile, l'holotype, est référencé, venant de Brunnstatt, du Rupélien ou Oligocène inférieur de France, décrit en 1891 par Bruno Förster.
-Étymologie
-L'épithète spécifique convexus signifie en latin « convexe » ou « bombé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Copelatus convexus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852-1924) sous le protonyme Escheria convexa,.
 </t>
         </is>
       </c>
@@ -547,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[3],[note 2] : 
-« Espèce décrite par Förster des marnes en plaquettes de Brunstatt. L'auteur l'attribue au g. Escheria Heer. Ce g. fossile a été établi par O. Heer pour désigner des Hydrophilidae d'Oeningen à position systématique douteuse.
-En réalité les formes citées par Förster se distinguent déjà de Escheria ovalis Heer en ce sens qu'elles ont une taille double, ce qui n'entraine pas, il est vrai, la nullité de la détermination. Mais la conformation de l'abdomen n'est pas la même. Dans l'ornementation des élytres aussi, il y a une différence, dans Escheria ovalis, Heer cite huit stries, dans Hydobius convexus, dix sont visibles, surtout dans la partie inférieure. C'est là un caractère du genre Hydrobius dans lequel il convient, à notre avis, de ranger cette espèce. La forme du corselet a la même conformation dans Hydrobius et dans l'insecte de Brunnstatt.
-Un échantillon et sa contre-empreinte de Kleinkembs (R91+74) de la collection Mieg du Muséum de Bâle. »[3].
-Dimensions
-La longueur totale de l'insecte est de 6,3-6,5 mm[5].
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 le paléontologue français Nicolas Théobald (1903-1981) renomme Escheria convexa en Hydrobius convexus ou Hydrobius convexa selon TPDB,.
+En 2011 le paléontologue tchèque Martin Fikáček (d) et son équipe renomment Escheria convexa en Copelatus convexus,. Ils indiquent que l'holotype de Brunstatt est perdu, et proposent que les spécimens de Kleinkembs deviennent le néotype[note 1].
 </t>
         </is>
       </c>
@@ -584,13 +592,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, un seul fossile, l'holotype, est référencé, venant de Brunnstatt, du Rupélien ou Oligocène inférieur de France, décrit en 1891 par Bruno Förster.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique convexus signifie en latin « convexe » ou « bombé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Espèce décrite par Förster des marnes en plaquettes de Brunstatt. L'auteur l'attribue au g. Escheria Heer. Ce g. fossile a été établi par O. Heer pour désigner des Hydrophilidae d'Oeningen à position systématique douteuse.
+En réalité les formes citées par Förster se distinguent déjà de Escheria ovalis Heer en ce sens qu'elles ont une taille double, ce qui n'entraine pas, il est vrai, la nullité de la détermination. Mais la conformation de l'abdomen n'est pas la même. Dans l'ornementation des élytres aussi, il y a une différence, dans Escheria ovalis, Heer cite huit stries, dans Hydobius convexus, dix sont visibles, surtout dans la partie inférieure. C'est là un caractère du genre Hydrobius dans lequel il convient, à notre avis, de ranger cette espèce. La forme du corselet a la même conformation dans Hydrobius et dans l'insecte de Brunnstatt.
+Un échantillon et sa contre-empreinte de Kleinkembs (R91+74) de la collection Mieg du Muséum de Bâle. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'insecte est de 6,3-6,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copelatus_convexus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Copelatus est actuellement pantropical dans sa distribution et contient plus de 400 espèces décrites (Nilsson 2001) »[6].
+« Copelatus est actuellement pantropical dans sa distribution et contient plus de 400 espèces décrites (Nilsson 2001) ».
 </t>
         </is>
       </c>
